--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551325.9261057886</v>
+        <v>547614.6204571931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.69682649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>2519657.03858823</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6963774.655438988</v>
+        <v>7873457.428856116</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.5495228210719</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>281.2673866062283</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100371</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>70.22778996213421</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>66.72457055526927</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1139,16 +1141,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>168.4052320274147</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>73.70641259348758</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1370,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>315.0603332695344</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>319.0913907347035</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1661,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>117.7395304238318</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>242.5938981288108</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1907,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>108.3554797687792</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>81.8561543493784</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.20549866363028</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>129.4018751502027</v>
       </c>
       <c r="G25" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2713,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908724016</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4491387262516</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2956,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>104.9037564455526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3673,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>121.5810861820461</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>205.6296692962679</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3986,16 +3988,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>223.7790684335266</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>26.71692503560848</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>264.5762848854863</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1597.806787648507</v>
+        <v>1178.80004717037</v>
       </c>
       <c r="C2" t="n">
-        <v>1597.806787648507</v>
+        <v>751.8993171836698</v>
       </c>
       <c r="D2" t="n">
-        <v>1597.806787648507</v>
+        <v>328.6066963686701</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.829847796364</v>
+        <v>328.6066963686701</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>328.6066963686701</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>328.6066963686701</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924752</v>
@@ -4328,19 +4330,19 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="O2" t="n">
         <v>1768.825772958193</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.573982417266</v>
+        <v>1598.6484114619</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4391,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
         <v>44.49822504924752</v>
@@ -4407,25 +4409,25 @@
         <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115936</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115936</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764434</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M3" t="n">
-        <v>201.1892506764434</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608814</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4492,7 +4494,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>413.3037651531261</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>413.3037651531261</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>413.3037651531261</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>413.3037651531261</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>413.3037651531261</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924752</v>
@@ -4565,52 +4567,52 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>667.494702989317</v>
       </c>
       <c r="M5" t="n">
-        <v>2059.098288819457</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819457</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>2157.512696345942</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2157.512696345942</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2157.512696345942</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2157.512696345942</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.792697513689</v>
+        <v>833.1521294446561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.792697513689</v>
+        <v>833.1521294446561</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4628,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
         <v>44.49822504924752</v>
@@ -4650,19 +4652,19 @@
         <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336854</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.236203251985</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C8" t="n">
-        <v>1042.236203251985</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>618.9435824369855</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>618.9435824369855</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>618.9435824369855</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>214.6045200264341</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924752</v>
@@ -4802,13 +4804,13 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>957.767218850581</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="M8" t="n">
         <v>1123.5801824935</v>
@@ -4838,16 +4840,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588625</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588625</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="X8" t="n">
-        <v>1867.421837588625</v>
+        <v>1738.74033181852</v>
       </c>
       <c r="Y8" t="n">
-        <v>1462.084567543515</v>
+        <v>1738.74033181852</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>687.9211111614567</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>1238.586646145895</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L9" t="n">
-        <v>1238.586646145895</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M9" t="n">
-        <v>1760.765775599596</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N9" t="n">
-        <v>1760.765775599596</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O9" t="n">
-        <v>1760.765775599596</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1760.765775599596</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4966,7 +4968,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>767.0800483381165</v>
+        <v>2199.633349028036</v>
       </c>
       <c r="C11" t="n">
-        <v>767.0800483381165</v>
+        <v>1772.732619041336</v>
       </c>
       <c r="D11" t="n">
-        <v>448.8372874597989</v>
+        <v>1349.439998226337</v>
       </c>
       <c r="E11" t="n">
-        <v>448.8372874597989</v>
+        <v>923.4630583741942</v>
       </c>
       <c r="F11" t="n">
-        <v>448.8372874597989</v>
+        <v>498.3388765635945</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>456.6032729699386</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336854</v>
+        <v>1172.111580945438</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>595.1637600336854</v>
+        <v>2878.594999014641</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091852</v>
+        <v>3854.846057501342</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.26943807629</v>
+        <v>4699.990707652154</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.26943807629</v>
+        <v>4699.990707652154</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>4699.990707652154</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652154</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>4595.623413525294</v>
       </c>
       <c r="T11" t="n">
-        <v>2003.985681507009</v>
+        <v>4374.697842569927</v>
       </c>
       <c r="U11" t="n">
-        <v>2003.985681507009</v>
+        <v>4116.342933166339</v>
       </c>
       <c r="V11" t="n">
-        <v>2003.985681507009</v>
+        <v>3758.853518292589</v>
       </c>
       <c r="W11" t="n">
-        <v>2003.985681507009</v>
+        <v>3436.538982196929</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.265682674756</v>
+        <v>3024.818983364676</v>
       </c>
       <c r="Y11" t="n">
-        <v>1186.928412629647</v>
+        <v>2619.481713319567</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844983</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020031</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>439.7774432172881</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>335.0755094902253</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>241.4296791731295</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>147.3759073907335</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="K12" t="n">
-        <v>316.1957143288386</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="L12" t="n">
-        <v>316.1957143288386</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="M12" t="n">
-        <v>316.1957143288386</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="N12" t="n">
-        <v>866.8612493132766</v>
+        <v>1183.314760625913</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.526784297715</v>
+        <v>1186.489727695055</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592486</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484606</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512687</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045611</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>1177.18093667728</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>1005.208373556196</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>841.8916006829666</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>675.6833948358201</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>503.8216206103805</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>337.5646509046127</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>193.7683824127671</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304308</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.4911423772011</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830383</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.708064877459</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.89385984771</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723746</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403509</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>2111.105974081285</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1836.253570253798</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>1593.689673699603</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>1367.346905389345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.689568770218</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.788838783518</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>930.4962179685185</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>504.5192781163761</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>79.39509630577631</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39509630577631</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577631</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>572.9146475090618</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1123.5801824935</v>
+        <v>1463.618246195025</v>
       </c>
       <c r="M14" t="n">
-        <v>1674.245717477938</v>
+        <v>2467.904347614083</v>
       </c>
       <c r="N14" t="n">
-        <v>2224.911252462376</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335516</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.618387380149</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>1780.689568770218</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>1780.689568770218</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>1780.689568770218</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>1780.689568770218</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1780.689568770218</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336854</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002561</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.7432593109769</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>458.7432593109769</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>458.7432593109769</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E16" t="n">
-        <v>458.7432593109769</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>991.7500075300175</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>991.7500075300175</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>991.7500075300175</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>991.7500075300175</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>746.7056659857641</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3666035752127</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924752</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336854</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002561</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2003.985681507009</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>1745.630772103421</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>1388.141357229671</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>991.7500075300175</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>991.7500075300175</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>991.7500075300175</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133208</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308255</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461105</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190478</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>563.653486901952</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>469.599715119556</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818656</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818656</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818656</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>572.9146475090618</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L18" t="n">
-        <v>1123.5801824935</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="M18" t="n">
-        <v>1674.245717477938</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="N18" t="n">
-        <v>2224.911252462376</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="O18" t="n">
-        <v>2224.911252462376</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="P18" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.58700502363</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321308</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240945</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380211</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213428</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980091</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.274122333384</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>884.1145108219147</v>
+        <v>1131.61704262126</v>
       </c>
       <c r="C19" t="n">
-        <v>712.1419477008307</v>
+        <v>959.6444795001755</v>
       </c>
       <c r="D19" t="n">
-        <v>548.8251748276014</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>382.6169689804549</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7551947550154</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1401.530811203597</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1126.67840737611</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>884.1145108219147</v>
+        <v>1548.125779643583</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1145108219147</v>
+        <v>1321.783011333325</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>684.0970829842502</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C22" t="n">
-        <v>512.1245198631661</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y22" t="n">
-        <v>684.0970829842502</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3619.314716995755</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="C25" t="n">
-        <v>3447.342153874671</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="D25" t="n">
-        <v>3284.025381001441</v>
+        <v>642.8334846613506</v>
       </c>
       <c r="E25" t="n">
-        <v>3117.817175154295</v>
+        <v>642.8334846613506</v>
       </c>
       <c r="F25" t="n">
-        <v>2945.955400928855</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4035.823454018078</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.48068570782</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6230,31 +6232,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.8534934449018</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G28" t="n">
         <v>246.0989818976742</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2167.110550186379</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1886.926101686684</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.214634294712</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.362230467225</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1330.362230467225</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.019462156967</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3375.975369221655</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>3204.002806100571</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>3040.686033227342</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017632</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.90040662566</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W31" t="n">
-        <v>4035.048002798173</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>3792.484106243979</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>3566.14133793372</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>325.1003961287815</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1040.608704104281</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1970.233751723557</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2974.519853142615</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.582799500206</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6938,31 +6940,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
@@ -7020,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7072,16 +7074,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,25 +7119,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1587.529878172021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
         <v>1375.649804642131</v>
@@ -7175,28 +7177,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7397,19 +7399,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7418,28 +7420,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7451,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7491,25 +7493,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.707978767258</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1119.807248780558</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>696.5146279655582</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>270.5376881134158</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>116.8291680048787</v>
+        <v>366.6855125151242</v>
       </c>
       <c r="K44" t="n">
-        <v>667.4947029893167</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L44" t="n">
-        <v>667.4947029893167</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M44" t="n">
-        <v>667.4947029893167</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>667.4947029893167</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958193</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1966.556343058788</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1966.556343058788</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1966.556343058788</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1966.556343058788</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1966.556343058788</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751884</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L45" t="n">
-        <v>1424.973427259626</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.973427259626</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N45" t="n">
-        <v>1424.973427259626</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1424.973427259626</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1424.973427259626</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>882.9456501749507</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734052</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792424</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736632</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2054.776204981511</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1811.43685720741</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1544.188084595808</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1544.188084595808</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W46" t="n">
-        <v>1544.188084595808</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>1073.111618887016</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721927</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3411813754876</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>258.7570141181237</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>173.2669883963347</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>268.1828480767086</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7998844961772</v>
+        <v>572.0660045132432</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716181</v>
@@ -8532,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>550.5504466271783</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>463.2315577343865</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>822.1366875963272</v>
       </c>
       <c r="N11" t="n">
-        <v>547.8252218830989</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8778,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378161</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P12" t="n">
-        <v>461.830509216993</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>569.5185628754298</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>324.3764525304026</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>571.3293238908516</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>180.6729970931274</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>529.590831132079</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>362.1014486857561</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9878,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>124.3756766890881</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>254.4681238522057</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10431,7 +10433,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10443,10 +10445,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.9869822143642</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q41" t="n">
-        <v>397.6042905607445</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>324.1795137750922</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.4815180266282</v>
+        <v>296.4732919192185</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>195.5685862122802</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.4370567591076</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.1003578275428</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.62230813447718</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22762,7 +22764,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080143</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>330.0678818243116</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>151.9917446905439</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22942,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23027,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>126.4844627132908</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23078,16 +23080,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>318.721023609169</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.1854451728324</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>103.9993613373153</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>73.33604546795311</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.03182988572</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>178.2790418636829</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>53.32812537571782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>197.038198368673</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.8738419635251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>40.74128133298251</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>90.77286840263298</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>126.4568155701074</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>59.64236734312237</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>18.44967133088747</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>197.0938715589671</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>137.8291987530665</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>12.80631912921245</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,7 +26088,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457869.07805467</v>
+        <v>457869.0780546699</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457869.0780546698</v>
+        <v>457869.07805467</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457869.0780546699</v>
+        <v>716206.22626354</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457869.0780546699</v>
+        <v>759537.1041941977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457869.07805467</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759537.1041941975</v>
+        <v>759537.1041941977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457869.0780546699</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.581932267</v>
       </c>
       <c r="C2" t="n">
         <v>160941.581932267</v>
       </c>
       <c r="D2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="E2" t="n">
-        <v>160941.581932267</v>
+        <v>251735.5700578108</v>
       </c>
       <c r="F2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="G2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="H2" t="n">
         <v>266964.4414902873</v>
@@ -26344,16 +26346,16 @@
         <v>266964.4414902873</v>
       </c>
       <c r="M2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="P2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902873</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.45639129494</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875097</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.9251377784</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.05256608718</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>26326.44296043127</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26326.44296043127</v>
+      </c>
+      <c r="D4" t="n">
         <v>26326.44296043126</v>
       </c>
-      <c r="C4" t="n">
-        <v>26326.44296043126</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26326.44296043127</v>
-      </c>
       <c r="E4" t="n">
-        <v>26326.44296043126</v>
+        <v>41245.95190764741</v>
       </c>
       <c r="F4" t="n">
-        <v>26326.44296043126</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>26326.44296043126</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26445,7 +26447,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389555</v>
       </c>
       <c r="P4" t="n">
-        <v>26326.44296043127</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>71439.85875631274</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-119235.8454803296</v>
       </c>
       <c r="C6" t="n">
-        <v>67168.88793440763</v>
+        <v>67168.88793440761</v>
       </c>
       <c r="D6" t="n">
-        <v>67168.88793440763</v>
+        <v>67168.88793440757</v>
       </c>
       <c r="E6" t="n">
-        <v>100796.4879344076</v>
+        <v>-45701.30899906281</v>
       </c>
       <c r="F6" t="n">
-        <v>100796.4879344076</v>
+        <v>115728.5224566672</v>
       </c>
       <c r="G6" t="n">
-        <v>100796.4879344076</v>
+        <v>145465.9788479622</v>
       </c>
       <c r="H6" t="n">
-        <v>-49486.16113954767</v>
+        <v>145465.978847962</v>
       </c>
       <c r="I6" t="n">
         <v>145465.978847962</v>
       </c>
       <c r="J6" t="n">
-        <v>-67.69108685439278</v>
+        <v>-67.69108685446554</v>
       </c>
       <c r="K6" t="n">
-        <v>145465.978847962</v>
+        <v>145465.9788479621</v>
       </c>
       <c r="L6" t="n">
-        <v>145465.978847962</v>
+        <v>145465.9788479621</v>
       </c>
       <c r="M6" t="n">
-        <v>145465.9788479621</v>
+        <v>-8733.946289816289</v>
       </c>
       <c r="N6" t="n">
-        <v>145465.9788479621</v>
+        <v>120045.9262818749</v>
       </c>
       <c r="O6" t="n">
         <v>145465.978847962</v>
       </c>
       <c r="P6" t="n">
-        <v>100796.4879344076</v>
+        <v>145465.9788479621</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>1174.997676913039</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974446</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598177</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974446</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598177</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974446</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598177</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>73.06155854104156</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>238.1458997847903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>150.7519016821051</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>73.06155854104186</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>167.4878420635542</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>527.4536661148503</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.7054246968954</v>
       </c>
       <c r="N11" t="n">
-        <v>510.5455990486529</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155939</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P12" t="n">
-        <v>440.0596680121643</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>533.7539620806205</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>286.0644100977797</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>533.7539620806203</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>158.2737632597941</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>507.0757444178494</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>324.5260868755248</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>86.80031487885682</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.0481643666192</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q41" t="n">
-        <v>361.4796159561464</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>302.4086725702635</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.06155854104165</v>
+        <v>267.053332433632</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155939</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>349.6900184701291</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>547614.6204571931</v>
+        <v>545188.0279729101</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11851279.69682649</v>
+        <v>11851279.69682648</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.03858823</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873457.428856116</v>
+        <v>7873457.428856114</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>281.2673866062283</v>
+        <v>72.79186036027636</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>404.7071624711353</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.22778996213421</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1141,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>173.383646615705</v>
       </c>
       <c r="W8" t="n">
-        <v>73.70641259348758</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0673923170407</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>216.238344279617</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>319.0913907347035</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>108.3554797687792</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>129.4018751502027</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>79.47996908724016</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.6296692962679</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.71692503560848</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178.80004717037</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C2" t="n">
-        <v>751.8993171836698</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D2" t="n">
-        <v>328.6066963686701</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E2" t="n">
-        <v>328.6066963686701</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="F2" t="n">
-        <v>328.6066963686701</v>
+        <v>118.0253567262944</v>
       </c>
       <c r="G2" t="n">
-        <v>328.6066963686701</v>
+        <v>118.0253567262944</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505811</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958193</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.985681507009</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>1598.6484114619</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>287.7093087981018</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>838.3748437825399</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825399</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825399</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825399</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825399</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>413.3037651531261</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C5" t="n">
-        <v>413.3037651531261</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D5" t="n">
-        <v>413.3037651531261</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E5" t="n">
-        <v>413.3037651531261</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F5" t="n">
-        <v>413.3037651531261</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>667.494702989317</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958193</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1244.872128276909</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>833.1521294446561</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>833.1521294446561</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>287.7093087981018</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825399</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825399</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825399</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.891967526989</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E8" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>572.9146475090616</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1724.48339079863</v>
       </c>
       <c r="W8" t="n">
-        <v>2150.460330650772</v>
+        <v>1724.48339079863</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.74033181852</v>
+        <v>1312.763391966377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.74033181852</v>
+        <v>1312.763391966377</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989117</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4968,7 +4968,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109774</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2199.633349028036</v>
+        <v>2346.48210637939</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.732619041336</v>
+        <v>1919.58137639269</v>
       </c>
       <c r="D11" t="n">
-        <v>1349.439998226337</v>
+        <v>1496.28875557769</v>
       </c>
       <c r="E11" t="n">
-        <v>923.4630583741942</v>
+        <v>1070.311815725548</v>
       </c>
       <c r="F11" t="n">
-        <v>498.3388765635945</v>
+        <v>645.1876339149478</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99981415304308</v>
+        <v>426.7650639355367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304308</v>
+        <v>128.8966854095715</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>456.6032729699386</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>1172.111580945438</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>2101.736628564714</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="M11" t="n">
-        <v>2878.594999014641</v>
+        <v>2176.397682364495</v>
       </c>
       <c r="N11" t="n">
-        <v>3854.846057501342</v>
+        <v>2572.924963957308</v>
       </c>
       <c r="O11" t="n">
-        <v>4699.990707652154</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="P11" t="n">
-        <v>4699.990707652154</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.990707652154</v>
+        <v>4582.434372770231</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.990707652154</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4595.623413525294</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4374.697842569927</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.342933166339</v>
+        <v>4337.268504121686</v>
       </c>
       <c r="V11" t="n">
-        <v>3758.853518292589</v>
+        <v>3979.779089247935</v>
       </c>
       <c r="W11" t="n">
-        <v>3436.538982196929</v>
+        <v>3583.387739548282</v>
       </c>
       <c r="X11" t="n">
-        <v>3024.818983364676</v>
+        <v>3171.66774071603</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.481713319567</v>
+        <v>2766.33047067092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.1233051844983</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>543.6174017020031</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>439.7774432172881</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>335.0755094902253</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>241.4296791731295</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>147.3759073907335</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J12" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="L12" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="M12" t="n">
-        <v>93.99981415304308</v>
+        <v>1149.986352129088</v>
       </c>
       <c r="N12" t="n">
-        <v>1183.314760625913</v>
+        <v>1149.986352129088</v>
       </c>
       <c r="O12" t="n">
-        <v>1186.489727695055</v>
+        <v>1149.986352129088</v>
       </c>
       <c r="P12" t="n">
-        <v>1902.687444733553</v>
+        <v>1356.52265778607</v>
       </c>
       <c r="Q12" t="n">
-        <v>1902.687444733553</v>
+        <v>1820.668134648849</v>
       </c>
       <c r="R12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
         <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1679.483261592486</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
         <v>1494.715065512122</v>
@@ -5159,13 +5159,13 @@
         <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1093.220549484606</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>929.7432032512687</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.0503146045611</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1177.18093667728</v>
+        <v>437.8341514995662</v>
       </c>
       <c r="C13" t="n">
-        <v>1005.208373556196</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="D13" t="n">
-        <v>841.8916006829666</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="E13" t="n">
-        <v>675.6833948358201</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="F13" t="n">
-        <v>503.8216206103805</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="G13" t="n">
-        <v>337.5646509046127</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="H13" t="n">
-        <v>193.7683824127671</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99981415304308</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>151.4911423772011</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>378.0187435830383</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>732.708064877459</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.89385984771</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1501.385370723746</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1856.813499403509</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
         <v>2147.412711325409</v>
@@ -5226,25 +5226,25 @@
         <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2274.412841566171</v>
+        <v>2176.994452569339</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.412841566171</v>
+        <v>1933.655104795238</v>
       </c>
       <c r="U13" t="n">
-        <v>2274.412841566171</v>
+        <v>1653.470656295543</v>
       </c>
       <c r="V13" t="n">
-        <v>2111.105974081285</v>
+        <v>1371.759188903572</v>
       </c>
       <c r="W13" t="n">
-        <v>1836.253570253798</v>
+        <v>1096.906785076085</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.689673699603</v>
+        <v>854.3428885218898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.346905389345</v>
+        <v>628.0001202116318</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.618246195025</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2467.904347614083</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5363,19 +5363,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1021.509065974867</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,25 +5524,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>3896.932966279257</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>4398.937953252928</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M18" t="n">
-        <v>4398.937953252928</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>4398.937953252928</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>4398.937953252928</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1131.61704262126</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>959.6444795001755</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1548.125779643583</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1321.783011333325</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,34 +5752,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.1502575345799</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>806.1502575345799</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>642.8334846613506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>642.8334846613506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6779,22 +6779,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6955,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,19 +7399,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7426,22 +7426,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>366.6855125151242</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1082.193820490623</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.8188681099</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>275.5106105659859</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.9456501749507</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>710.9730870538667</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>710.9730870538667</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.018283751469</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1299.454387197274</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1073.111618887016</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
-        <v>301.3352940721927</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>258.7570141181237</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,10 +8072,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>543.1036942593831</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,16 +8294,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>268.1828480767086</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132432</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500401</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>463.2315577343865</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>822.1366875963272</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>437.8122305039535</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>324.3764525304026</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9011,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>529.590831132079</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>508.2614594140137</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
@@ -10208,7 +10208,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286654</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>296.4732919192185</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>195.5685862122802</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22558,13 +22558,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>13.62230813447718</v>
+        <v>222.0978343804292</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22600,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22612,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.94271817747938</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22798,10 +22798,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>330.0678818243116</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -22953,16 +22953,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>19.29091348988686</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>180.530874109308</v>
       </c>
       <c r="W8" t="n">
-        <v>318.721023609169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>47.1854451728324</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23190,7 +23190,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23199,7 +23199,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>184.0573275068288</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>73.33604546795311</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>53.32812537571782</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>40.74128133298251</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>90.77286840263298</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,13 +24612,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.44967133088747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>137.8291987530665</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457869.0780546699</v>
+        <v>457869.0780546701</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716206.22626354</v>
+        <v>716206.2262635377</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759537.1041941977</v>
+        <v>759537.1041941976</v>
       </c>
     </row>
     <row r="12">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="C2" t="n">
         <v>160941.581932267</v>
       </c>
       <c r="D2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.581932267</v>
       </c>
       <c r="E2" t="n">
-        <v>251735.5700578108</v>
+        <v>251735.5700578099</v>
       </c>
       <c r="F2" t="n">
         <v>266964.4414902874</v>
@@ -26331,25 +26331,25 @@
         <v>266964.4414902874</v>
       </c>
       <c r="H2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="I2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902875</v>
       </c>
       <c r="K2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="M2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="O2" t="n">
         <v>266964.4414902873</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184751.0683929134</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>29737.45639129494</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154199.9251377784</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>25420.05256608718</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>26326.44296043127</v>
       </c>
       <c r="D4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="E4" t="n">
-        <v>41245.95190764741</v>
+        <v>41245.95190764728</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389556</v>
@@ -26441,13 +26441,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26456,7 +26456,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389555</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="P4" t="n">
         <v>43748.40045389556</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>71439.85875631274</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119235.8454803296</v>
+        <v>-119844.8911928194</v>
       </c>
       <c r="C6" t="n">
-        <v>67168.88793440761</v>
+        <v>66559.84222191793</v>
       </c>
       <c r="D6" t="n">
-        <v>67168.88793440757</v>
+        <v>66559.8422219179</v>
       </c>
       <c r="E6" t="n">
-        <v>-45701.30899906281</v>
+        <v>-45832.49161615364</v>
       </c>
       <c r="F6" t="n">
-        <v>115728.5224566672</v>
+        <v>115677.4917944813</v>
       </c>
       <c r="G6" t="n">
-        <v>145465.9788479622</v>
+        <v>145414.9481857779</v>
       </c>
       <c r="H6" t="n">
-        <v>145465.978847962</v>
+        <v>145414.9481857778</v>
       </c>
       <c r="I6" t="n">
-        <v>145465.978847962</v>
+        <v>145414.9481857778</v>
       </c>
       <c r="J6" t="n">
-        <v>-67.69108685446554</v>
+        <v>-118.721749038566</v>
       </c>
       <c r="K6" t="n">
-        <v>145465.9788479621</v>
+        <v>145414.9481857778</v>
       </c>
       <c r="L6" t="n">
-        <v>145465.9788479621</v>
+        <v>145414.9481857779</v>
       </c>
       <c r="M6" t="n">
-        <v>-8733.946289816289</v>
+        <v>-8784.976951999313</v>
       </c>
       <c r="N6" t="n">
-        <v>120045.9262818749</v>
+        <v>119994.8956196892</v>
       </c>
       <c r="O6" t="n">
-        <v>145465.978847962</v>
+        <v>145414.9481857778</v>
       </c>
       <c r="P6" t="n">
-        <v>145465.9788479621</v>
+        <v>145414.9481857778</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.997676913039</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.7698637974446</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7862406598177</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974446</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598177</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974446</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598177</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L2" t="n">
-        <v>263.0232516395697</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>238.1458997847903</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104186</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>784.7054246968954</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>400.5326076695075</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>286.0644100977797</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>507.0757444178494</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.492718418434</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>267.053332433632</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>174.9574718789468</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
